--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -1,48 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="19890" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,24 +394,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +781,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +955,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -8,18 +8,34 @@
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Page Title</t>
   </si>
   <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User Account Name</t>
+  </si>
+  <si>
     <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Aju Mathew</t>
   </si>
 </sst>
 </file>
@@ -27,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +57,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -68,36 +92,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +111,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -141,6 +142,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -149,44 +158,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,108 +210,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,78 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,16 +414,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +452,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,168 +480,172 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,29 +970,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Page Title</t>
+    <t>Login Page Title</t>
   </si>
   <si>
-    <t>UserName</t>
+    <t>username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
     <t>User Account Name</t>
+  </si>
+  <si>
+    <t>Error Message</t>
   </si>
   <si>
     <t>Login - Demo POS</t>
@@ -37,16 +40,22 @@
   <si>
     <t>Aju Mathew</t>
   </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +66,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -66,14 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,11 +110,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,13 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -126,6 +156,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -142,45 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,43 +219,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,139 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,23 +416,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,6 +461,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -459,6 +483,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,175 +510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,20 +979,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,19 +1006,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
-    <t>Login Page Title</t>
+    <t>Title</t>
   </si>
   <si>
     <t>username</t>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,16 +103,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,29 +149,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,17 +171,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,60 +202,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,11 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,15 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +521,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,154 +541,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,8 +1011,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1117,7 +1117,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080"/>
+    <workbookView windowWidth="19890" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Home - Llolll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign Out  </t>
   </si>
 </sst>
 </file>
@@ -75,11 +78,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -103,14 +112,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,7 +157,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,21 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,9 +212,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,8 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,44 +242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,49 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,115 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +447,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -518,38 +547,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,134 +571,135 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1057,14 +1067,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,15 +1127,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1133,8 +1145,11 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1143,6 +1158,9 @@
       </c>
       <c r="C2" t="s">
         <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1129,7 +1129,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080"/>
+    <workbookView windowWidth="19890" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="ResetPasswordPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Login Page Title</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Invalid Email Address</t>
+  </si>
+  <si>
+    <t>Error Msg</t>
+  </si>
+  <si>
+    <t>user123@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
   </si>
 </sst>
 </file>
@@ -52,12 +64,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +78,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -74,67 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +114,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -156,55 +183,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,36 +436,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,22 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,18 +493,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,135 +549,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +1001,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1027,13 +1047,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,14 +1065,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="41.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="user123@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPasswordPage" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Login Page Title</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Home page Title</t>
+  </si>
+  <si>
+    <t>Home - Llolll</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1077,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1100,4 +1110,43 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080"/>
+    <workbookView windowWidth="19890" windowHeight="7080" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPasswordPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UserManagementPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -70,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">Sign Out  </t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
   </si>
 </sst>
 </file>
@@ -79,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,6 +127,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -118,8 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,37 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +228,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -219,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,31 +466,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,81 +535,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,97 +617,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,8 +1037,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1075,7 +1091,6 @@
       <c r="C3">
         <v>1234</v>
       </c>
-      <c r="D3"/>
       <c r="E3" s="3"/>
     </row>
   </sheetData>
@@ -1167,4 +1182,58 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>